--- a/Módulo 3/Limpeza e transformação de dados/sub_categoria_produto.xlsx
+++ b/Módulo 3/Limpeza e transformação de dados/sub_categoria_produto.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/442e7cdbf85a6b61/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{F8B51E54-0529-414D-94D9-D1D307EC2EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA09B85F-5B3D-4CF2-B30E-A84CB4E6961F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{F8B51E54-0529-414D-94D9-D1D307EC2EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8FEF4E-A9B3-4C08-A4ED-5D1B3E96CD1F}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11760" xr2:uid="{DA4A651A-9EBA-465E-A240-B9DA7B0DCD01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Janeiro</t>
   </si>
@@ -105,6 +106,18 @@
   </si>
   <si>
     <t>Derailleurs</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Acessories</t>
+  </si>
+  <si>
+    <t>Bikes</t>
   </si>
 </sst>
 </file>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE6A5C-9950-4133-98E7-927DAA17CCB1}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,602 +495,604 @@
     <col min="1" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>780000</v>
       </c>
-      <c r="D2">
-        <f>C2+10000</f>
+      <c r="D4">
+        <f>C4+10000</f>
         <v>790000</v>
       </c>
-      <c r="E2">
-        <f>D2+10000</f>
+      <c r="E4">
+        <f>D4+10000</f>
         <v>800000</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:O2" si="0">E2+10000</f>
+      <c r="F4">
+        <f t="shared" ref="F4:N4" si="0">E4+10000</f>
         <v>810000</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>830000</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>860000</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>870000</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>880000</v>
       </c>
-      <c r="N2">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>45000</v>
       </c>
-      <c r="D3">
-        <f>C3+1000</f>
+      <c r="D5">
+        <f>C5+1000</f>
         <v>46000</v>
       </c>
-      <c r="E3">
-        <f>D3+1000</f>
+      <c r="E5">
+        <f>D5+1000</f>
         <v>47000</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:O3" si="1">E3+1000</f>
+      <c r="F5">
+        <f t="shared" ref="F5:N5" si="1">E5+1000</f>
         <v>48000</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>49000</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>51000</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>52000</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>53000</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <f t="shared" si="1"/>
         <v>55000</v>
       </c>
-      <c r="N3">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>201000</v>
       </c>
-      <c r="D4">
-        <f>C4+1000</f>
+      <c r="D6">
+        <f>C6+1000</f>
         <v>202000</v>
       </c>
-      <c r="E4">
-        <f>D4+1000</f>
+      <c r="E6">
+        <f>D6+1000</f>
         <v>203000</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:O4" si="2">E4+1000</f>
+      <c r="F6">
+        <f t="shared" ref="F6:N6" si="2">E6+1000</f>
         <v>204000</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <f t="shared" si="2"/>
         <v>205000</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>206000</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>207000</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <f t="shared" si="2"/>
         <v>208000</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <f t="shared" si="2"/>
         <v>209000</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>211000</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>212000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>1100</v>
       </c>
-      <c r="D5">
-        <f>C5+100</f>
+      <c r="D7">
+        <f>C7+100</f>
         <v>1200</v>
       </c>
-      <c r="E5">
-        <f>D5+100</f>
+      <c r="E7">
+        <f>D7+100</f>
         <v>1300</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:O5" si="3">E5+100</f>
+      <c r="F7">
+        <f t="shared" ref="F7:N7" si="3">E7+100</f>
         <v>1400</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <f t="shared" si="3"/>
         <v>1700</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>11000</v>
       </c>
-      <c r="D6">
-        <f>C6+1000</f>
+      <c r="D8">
+        <f>C8+1000</f>
         <v>12000</v>
       </c>
-      <c r="E6">
-        <f>D6+1000</f>
+      <c r="E8">
+        <f>D8+1000</f>
         <v>13000</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:O6" si="4">E6+1000</f>
+      <c r="F8">
+        <f t="shared" ref="F8:N8" si="4">E8+1000</f>
         <v>14000</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <f t="shared" si="4"/>
         <v>18000</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <f t="shared" si="4"/>
         <v>22000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>15200</v>
       </c>
-      <c r="D7">
-        <f>C7+1000</f>
+      <c r="D9">
+        <f>C9+1000</f>
         <v>16200</v>
       </c>
-      <c r="E7">
-        <f>D7+1000</f>
+      <c r="E9">
+        <f>D9+1000</f>
         <v>17200</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:O7" si="5">E7+1000</f>
+      <c r="F9">
+        <f t="shared" ref="F9:N9" si="5">E9+1000</f>
         <v>18200</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <f t="shared" si="5"/>
         <v>19200</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <f t="shared" si="5"/>
         <v>20200</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <f t="shared" si="5"/>
         <v>21200</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <f t="shared" si="5"/>
         <v>22200</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <f t="shared" si="5"/>
         <v>23200</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <f t="shared" si="5"/>
         <v>24200</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <f t="shared" si="5"/>
         <v>25200</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <f t="shared" si="5"/>
         <v>26200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>10000</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="6">C8+10000</f>
+      <c r="D10">
+        <f t="shared" ref="D10" si="6">C10+10000</f>
         <v>20000</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8:F8" si="7">D8+10000</f>
+      <c r="E10">
+        <f t="shared" ref="E10:F10" si="7">D10+10000</f>
         <v>30000</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8:O8" si="8">F8+10000</f>
+      <c r="G10">
+        <f t="shared" ref="G10:N10" si="8">F10+10000</f>
         <v>50000</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <f t="shared" si="8"/>
         <v>60000</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <f t="shared" si="8"/>
         <v>70000</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <f t="shared" si="8"/>
         <v>80000</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <f t="shared" si="8"/>
         <v>90000</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <f t="shared" si="8"/>
         <v>110000</v>
       </c>
-      <c r="N8">
+      <c r="N10">
         <f t="shared" si="8"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>5000</v>
       </c>
-      <c r="D9">
-        <f>C9+100</f>
+      <c r="D11">
+        <f>C11+100</f>
         <v>5100</v>
       </c>
-      <c r="E9">
-        <f>D9+100</f>
+      <c r="E11">
+        <f>D11+100</f>
         <v>5200</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:O9" si="9">E9+100</f>
+      <c r="F11">
+        <f t="shared" ref="F11:N11" si="9">E11+100</f>
         <v>5300</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <f t="shared" si="9"/>
         <v>5400</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <f t="shared" si="9"/>
         <v>5500</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <f t="shared" si="9"/>
         <v>5600</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <f t="shared" si="9"/>
         <v>5700</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <f t="shared" si="9"/>
         <v>5800</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <f t="shared" si="9"/>
         <v>5900</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="N9">
+      <c r="N11">
         <f t="shared" si="9"/>
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>56982</v>
       </c>
-      <c r="D10">
-        <f>C10+1000</f>
+      <c r="D12">
+        <f>C12+1000</f>
         <v>57982</v>
       </c>
-      <c r="E10">
-        <f>D10+1000</f>
+      <c r="E12">
+        <f>D12+1000</f>
         <v>58982</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:O10" si="10">E10+1000</f>
+      <c r="F12">
+        <f t="shared" ref="F12:N12" si="10">E12+1000</f>
         <v>59982</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <f t="shared" si="10"/>
         <v>60982</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <f t="shared" si="10"/>
         <v>61982</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <f t="shared" si="10"/>
         <v>62982</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <f t="shared" si="10"/>
         <v>63982</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <f t="shared" si="10"/>
         <v>64982</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <f t="shared" si="10"/>
         <v>65982</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <f t="shared" si="10"/>
         <v>66982</v>
       </c>
-      <c r="N10">
+      <c r="N12">
         <f t="shared" si="10"/>
         <v>67982</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>1100</v>
       </c>
-      <c r="D11">
-        <f>C11+100</f>
+      <c r="D13">
+        <f>C13+100</f>
         <v>1200</v>
       </c>
-      <c r="E11">
-        <f>D11+100</f>
+      <c r="E13">
+        <f>D13+100</f>
         <v>1300</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:O11" si="11">E11+100</f>
+      <c r="F13">
+        <f t="shared" ref="F13:N13" si="11">E13+100</f>
         <v>1400</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <f t="shared" si="11"/>
         <v>1500</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <f t="shared" si="11"/>
         <v>1600</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <f t="shared" si="11"/>
         <v>1700</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <f t="shared" si="11"/>
         <v>1800</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <f t="shared" si="11"/>
         <v>1900</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <f t="shared" si="11"/>
         <v>2000</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <f t="shared" si="11"/>
         <v>2100</v>
       </c>
-      <c r="N11">
+      <c r="N13">
         <f t="shared" si="11"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,7 +1101,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83644BFD-CFA9-45A3-ABAD-391D3B4ABA51}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D261F867CE82EA489D88415C5AC993C4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98bb77bb0cc12de918e03a1e3cd5cdf6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3019d89f-f031-4d1e-b7d8-a3aff2a03c55" xmlns:ns4="878716db-020a-4087-b0dc-18eb9c1797a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc9d484427f0d9d16fc0d56f57f5cb3c" ns3:_="" ns4:_="">
     <xsd:import namespace="3019d89f-f031-4d1e-b7d8-a3aff2a03c55"/>
@@ -1309,22 +1417,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A488454-9E6E-4382-B012-64D6CED95B3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3019d89f-f031-4d1e-b7d8-a3aff2a03c55"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="878716db-020a-4087-b0dc-18eb9c1797a2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C209183C-E054-4654-A4B5-104D042ED855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2F2C0A6-0221-4B18-9E2B-35FD26BD2C64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1341,29 +1459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C209183C-E054-4654-A4B5-104D042ED855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A488454-9E6E-4382-B012-64D6CED95B3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3019d89f-f031-4d1e-b7d8-a3aff2a03c55"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="878716db-020a-4087-b0dc-18eb9c1797a2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>